--- a/Base/Teams/49ers/2021 Team Data.xlsx
+++ b/Base/Teams/49ers/2021 Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/49ers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_437A16CCAA9892D56C37FDC0C44CE643F404F32B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F331CED4-FD27-4A43-B54A-893133338157}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1</t>
-  </si>
-  <si>
-    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26</t>
-  </si>
-  <si>
-    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2</t>
-  </si>
-  <si>
-    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2</t>
+    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1</t>
+  </si>
+  <si>
+    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16</t>
+  </si>
+  <si>
+    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1</t>
+  </si>
+  <si>
+    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +167,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64</t>
-  </si>
-  <si>
-    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99</t>
-  </si>
-  <si>
-    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21</t>
-  </si>
-  <si>
-    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67</t>
-  </si>
-  <si>
-    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>7 0 11 0 13 0 0 0 9 14 10 10 0 10 12 0 0 0 56 1 5 0 0 0 0 0 13 8 21 7 9 -2 27 0 0 0 0 1 0 0 0 0 12 2</t>
+    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69</t>
+  </si>
+  <si>
+    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19</t>
+  </si>
+  <si>
+    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23</t>
+  </si>
+  <si>
+    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40</t>
+  </si>
+  <si>
+    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -668,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -677,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -689,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,57 +751,57 @@
         <v>123</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -763,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>291</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -943,28 +993,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,57 +1026,57 @@
         <v>127</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q2">
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>68</v>
+      </c>
+      <c r="G3">
         <v>24</v>
       </c>
-      <c r="F3">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
       <c r="H3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="M3">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -1038,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>305</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,27 +1262,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1251,10 +1303,10 @@
         <v>125</v>
       </c>
       <c r="N2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1263,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,28 +1371,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1357,21 +1411,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1380,14 +1434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,51 +1452,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="B5">
         <v>1</v>

--- a/Base/Teams/49ers/2021 Team Data.xlsx
+++ b/Base/Teams/49ers/2021 Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/49ers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_437A16CCAA9892D56C37FDC0C44CE643F404F32B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F331CED4-FD27-4A43-B54A-893133338157}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1</t>
-  </si>
-  <si>
-    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16</t>
-  </si>
-  <si>
-    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1</t>
-  </si>
-  <si>
-    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0</t>
+    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2</t>
+  </si>
+  <si>
+    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12</t>
+  </si>
+  <si>
+    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3</t>
+  </si>
+  <si>
+    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,19 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69</t>
-  </si>
-  <si>
-    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19</t>
-  </si>
-  <si>
-    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23</t>
-  </si>
-  <si>
-    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40</t>
-  </si>
-  <si>
-    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11</t>
+    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65</t>
+  </si>
+  <si>
+    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18</t>
+  </si>
+  <si>
+    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23</t>
+  </si>
+  <si>
+    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50</t>
+  </si>
+  <si>
+    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0</t>
+  </si>
+  <si>
+    <t>0 0 0 4 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -718,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -739,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -751,7 +701,7 @@
         <v>123</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -763,7 +713,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -771,37 +721,37 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="M3">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -813,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>351</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -1002,10 +952,10 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1014,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1026,19 +976,19 @@
         <v>127</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1046,37 +996,37 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>78</v>
+      </c>
+      <c r="G3">
         <v>26</v>
       </c>
-      <c r="F3">
-        <v>68</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
-      </c>
       <c r="H3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="M3">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -1088,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>375</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,27 +1210,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1291,13 +1239,13 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M2">
         <v>125</v>
@@ -1315,12 +1263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,30 +1319,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1411,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,10 +1368,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1434,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1452,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>1</v>

--- a/Base/Teams/49ers/2021 Team Data.xlsx
+++ b/Base/Teams/49ers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2</t>
-  </si>
-  <si>
-    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12</t>
-  </si>
-  <si>
-    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3</t>
-  </si>
-  <si>
-    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23</t>
+    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2</t>
+  </si>
+  <si>
+    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1</t>
+  </si>
+  <si>
+    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3</t>
+  </si>
+  <si>
+    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65</t>
-  </si>
-  <si>
-    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18</t>
-  </si>
-  <si>
-    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23</t>
-  </si>
-  <si>
-    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50</t>
-  </si>
-  <si>
-    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0</t>
-  </si>
-  <si>
-    <t>0 0 0 4 0 0</t>
+    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58</t>
+  </si>
+  <si>
+    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24</t>
+  </si>
+  <si>
+    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15</t>
+  </si>
+  <si>
+    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55</t>
+  </si>
+  <si>
+    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0</t>
+  </si>
+  <si>
+    <t>0 0 0 4 0 0 10 -2</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -689,16 +689,16 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="N2">
         <v>11</v>
@@ -710,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="Q2">
-        <v>373</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>27</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -943,49 +943,49 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="M2">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="N2">
         <v>23</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P2">
         <v>9</v>
       </c>
       <c r="Q2">
-        <v>343</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>162</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L2">
         <v>160</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1351,10 +1351,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/49ers/2021 Team Data.xlsx
+++ b/Base/Teams/49ers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2</t>
-  </si>
-  <si>
-    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1</t>
-  </si>
-  <si>
-    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3</t>
-  </si>
-  <si>
-    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4</t>
+    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4</t>
+  </si>
+  <si>
+    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2</t>
+  </si>
+  <si>
+    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1</t>
+  </si>
+  <si>
+    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58</t>
-  </si>
-  <si>
-    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24</t>
+    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58 63 60</t>
+  </si>
+  <si>
+    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24 37 20</t>
   </si>
   <si>
     <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15</t>
   </si>
   <si>
-    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55</t>
-  </si>
-  <si>
-    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0</t>
-  </si>
-  <si>
-    <t>0 0 0 4 0 0 10 -2</t>
+    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55 30 40</t>
+  </si>
+  <si>
+    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 4 0 0 10 -2 0 0 12 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2">
+        <v>62</v>
+      </c>
+      <c r="G2">
         <v>57</v>
-      </c>
-      <c r="G2">
-        <v>55</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>141</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2">
         <v>431</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="M3">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>422</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -940,31 +940,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>146</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O2">
         <v>23</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G3">
         <v>30</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="M3">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="N3">
         <v>13</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>440</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1245,10 +1245,10 @@
         <v>271</v>
       </c>
       <c r="L2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N2">
         <v>49</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/49ers/2021 Team Data.xlsx
+++ b/Base/Teams/49ers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4</t>
-  </si>
-  <si>
-    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2</t>
-  </si>
-  <si>
-    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1</t>
-  </si>
-  <si>
-    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4</t>
+    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2</t>
+  </si>
+  <si>
+    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29</t>
+  </si>
+  <si>
+    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2</t>
+  </si>
+  <si>
+    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58 63 60</t>
-  </si>
-  <si>
-    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24 37 20</t>
-  </si>
-  <si>
-    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15</t>
-  </si>
-  <si>
-    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55 30 40</t>
-  </si>
-  <si>
-    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 4 0 0 10 -2 0 0 12 0 0</t>
+    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58 63 60 66 65 61 66 57</t>
+  </si>
+  <si>
+    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24 37 20 21 18 26 20 13</t>
+  </si>
+  <si>
+    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15 28 7</t>
+  </si>
+  <si>
+    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55 30 40 52 28 36 43</t>
+  </si>
+  <si>
+    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0 0 0 15 0 8 0</t>
+  </si>
+  <si>
+    <t>0 0 0 4 0 0 10 -2 0 0 12 0 0 0 9 0 18 11 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
+        <v>67</v>
+      </c>
+      <c r="G2">
         <v>62</v>
-      </c>
-      <c r="G2">
-        <v>57</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="M2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="N2">
         <v>13</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2">
         <v>10</v>
       </c>
       <c r="Q2">
-        <v>431</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>24</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>159</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -952,40 +952,40 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="M2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="N2">
         <v>27</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
         <v>9</v>
       </c>
       <c r="Q2">
-        <v>406</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="H3">
-        <v>29</v>
-      </c>
       <c r="I3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>184</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L2">
         <v>161</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/49ers/2021 Team Data.xlsx
+++ b/Base/Teams/49ers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2</t>
-  </si>
-  <si>
-    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29</t>
-  </si>
-  <si>
-    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2</t>
-  </si>
-  <si>
-    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14</t>
+    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 9 1 13 4 4 9 5 -1 6 -2 0 1 5 2 2 -1 7 1 5 11 3 9 26 -1 16 1 13 5 1 5 5 3 0 5 1 2 3 9</t>
+  </si>
+  <si>
+    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 17 11 15 11 11 10 9 19 10 37 5 13 -1 18 5 4</t>
+  </si>
+  <si>
+    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 -3 4 5 5 8 5 1 5 0 0 1 1 9 3 3 2 4 0 2 5 17</t>
+  </si>
+  <si>
+    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 10 7 18 20 9 12 8 6 0 5 14 8 6 24 5 6 2 11 10 38 9 10 9</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58 63 60 66 65 61 66 57</t>
-  </si>
-  <si>
-    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24 37 20 21 18 26 20 13</t>
-  </si>
-  <si>
-    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15 28 7</t>
-  </si>
-  <si>
-    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55 30 40 52 28 36 43</t>
-  </si>
-  <si>
-    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0 0 0 15 0 8 0</t>
-  </si>
-  <si>
-    <t>0 0 0 4 0 0 10 -2 0 0 12 0 0 0 9 0 18 11 0</t>
+    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58 63 60 66 65 61 66 57 66 69 65 64</t>
+  </si>
+  <si>
+    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24 37 20 21 18 26 20 13 14 22 18 32</t>
+  </si>
+  <si>
+    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15 28 7 15 16 13</t>
+  </si>
+  <si>
+    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55 30 40 52 28 36 43 42 43 47 43 43 46 48 42</t>
+  </si>
+  <si>
+    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0 0 0 15 0 8 0 9 31 0 0 0 0 5 0</t>
+  </si>
+  <si>
+    <t>0 0 0 4 0 0 10 -2 0 0 12 0 0 0 9 0 18 11 0 0 0 14 0 11 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
       <c r="F2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>157</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O2">
         <v>20</v>
@@ -721,37 +721,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="M3">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>482</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
+        <v>71</v>
+      </c>
+      <c r="G2">
         <v>64</v>
-      </c>
-      <c r="G2">
-        <v>54</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>167</v>
       </c>
       <c r="N2">
+        <v>37</v>
+      </c>
+      <c r="O2">
         <v>27</v>
       </c>
-      <c r="O2">
-        <v>24</v>
-      </c>
       <c r="P2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>472</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="M3">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>502</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="G2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,22 +1239,22 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/49ers/2021 Team Data.xlsx
+++ b/Base/Teams/49ers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 9 1 13 4 4 9 5 -1 6 -2 0 1 5 2 2 -1 7 1 5 11 3 9 26 -1 16 1 13 5 1 5 5 3 0 5 1 2 3 9</t>
-  </si>
-  <si>
-    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 17 11 15 11 11 10 9 19 10 37 5 13 -1 18 5 4</t>
-  </si>
-  <si>
-    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 -3 4 5 5 8 5 1 5 0 0 1 1 9 3 3 2 4 0 2 5 17</t>
-  </si>
-  <si>
-    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 10 7 18 20 9 12 8 6 0 5 14 8 6 24 5 6 2 11 10 38 9 10 9</t>
+    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 9 1 13 4 4 9 5 -1 6 -2 0 1 5 2 2 -1 7 1 5 11 3 9 26 -1 16 1 13 5 1 5 5 3 0 5 1 2 3 9 1 2 5 -1 2 2 7 4 2 6 4 5 4 5 1 5 9 5 8 13 5 -2 4 3 0 9 1 1</t>
+  </si>
+  <si>
+    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 17 11 15 11 11 10 9 19 10 37 5 13 -1 18 5 4 15 16 12 18 3 12 -1 24 6 12 14</t>
+  </si>
+  <si>
+    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 -3 4 5 5 8 5 1 5 0 0 1 1 9 3 3 2 4 0 2 5 17 4 -1 1 5 6 14 3 4 4 3 2 -1 2 3 2 5 4 3 2 2</t>
+  </si>
+  <si>
+    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 10 7 18 20 9 12 8 6 0 5 14 8 6 24 5 6 2 11 10 38 9 10 9 14 19 10 11 7 9 1 3 8 9 5 75 6 6 25 1 5 6 2 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58 63 60 66 65 61 66 57 66 69 65 64</t>
-  </si>
-  <si>
-    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24 37 20 21 18 26 20 13 14 22 18 32</t>
-  </si>
-  <si>
-    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15 28 7 15 16 13</t>
-  </si>
-  <si>
-    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55 30 40 52 28 36 43 42 43 47 43 43 46 48 42</t>
-  </si>
-  <si>
-    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0 0 0 15 0 8 0 9 31 0 0 0 0 5 0</t>
-  </si>
-  <si>
-    <t>0 0 0 4 0 0 10 -2 0 0 12 0 0 0 9 0 18 11 0 0 0 14 0 11 0 0 0 0</t>
+    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58 63 60 66 65 61 66 57 66 69 65 64 49 59 61</t>
+  </si>
+  <si>
+    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24 37 20 21 18 26 20 13 14 22 18 32 15 26 25</t>
+  </si>
+  <si>
+    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15 28 7 15 16 13 32 45 14</t>
+  </si>
+  <si>
+    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55 30 40 52 28 36 43 42 43 47 43 43 46 48 42 46 42 52 49 45</t>
+  </si>
+  <si>
+    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0 0 0 15 0 8 0 9 31 0 0 0 0 5 0 0 0 6 5 0</t>
+  </si>
+  <si>
+    <t>0 0 0 4 0 0 10 -2 0 0 12 0 0 0 9 0 18 11 0 0 0 14 0 11 0 0 0 0 0 6 0 7 9</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>157</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="M3">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>627</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -952,10 +952,10 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>167</v>
       </c>
       <c r="N2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O2">
         <v>27</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G3">
         <v>35</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
+        <v>76</v>
+      </c>
+      <c r="J3">
         <v>71</v>
-      </c>
-      <c r="J3">
-        <v>68</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="M3">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>643</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N2">
         <v>51</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/49ers/2021 Team Data.xlsx
+++ b/Base/Teams/49ers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 9 1 13 4 4 9 5 -1 6 -2 0 1 5 2 2 -1 7 1 5 11 3 9 26 -1 16 1 13 5 1 5 5 3 0 5 1 2 3 9 1 2 5 -1 2 2 7 4 2 6 4 5 4 5 1 5 9 5 8 13 5 -2 4 3 0 9 1 1</t>
-  </si>
-  <si>
-    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 17 11 15 11 11 10 9 19 10 37 5 13 -1 18 5 4 15 16 12 18 3 12 -1 24 6 12 14</t>
-  </si>
-  <si>
-    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 -3 4 5 5 8 5 1 5 0 0 1 1 9 3 3 2 4 0 2 5 17 4 -1 1 5 6 14 3 4 4 3 2 -1 2 3 2 5 4 3 2 2</t>
-  </si>
-  <si>
-    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 10 7 18 20 9 12 8 6 0 5 14 8 6 24 5 6 2 11 10 38 9 10 9 14 19 10 11 7 9 1 3 8 9 5 75 6 6 25 1 5 6 2 4</t>
+    <t>0 11 9 1 3 3 38 6 11 3 3 3 2 10 2 7 3 2 1 7 -1 0 0 6 0 1 1 -4 -1 3 3 0 1 2 5 2 7 4 5 2 2 10 2 3 2 7 4 21 2 0 1 3 9 3 0 8 -1 8 1 1 3 4 -3 0 9 2 2 0 1 2 2 16 8 4 0 7 9 5 1 1 3 -1 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 14 0 2 1 -3 5 11 9 9 7 7 14 4 -2 1 7 7 12 1 13 -2 15 1 5 6 7 4 5 3 20 14 14 12 6 2 3 6 5 3 -1 2 3 -3 2 0 4 1 5 4 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 9 -5 -2 11 14 5 2 -1 2 3 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 4 3 -3 6 15 20 10 1 3 4 9 3 4 10 4 4 2 5 49 4 3 2 4 12 0 1 3 -6 5 1 0 6 7 9 4 3 1 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 9 1 13 4 4 9 5 -1 6 -2 0 1 5 2 2 -1 7 1 5 11 3 9 26 -1 16 1 13 5 1 5 5 3 0 5 1 2 3 9 1 2 5 -1 2 2 7 4 2 6 4 5 4 5 1 5 9 5 8 13 5 -2 4 3 0 9 1 1 0 3 3 1 3 3 2 4 6 9 3 1 1 5 -1 0 -1 9 -1 0</t>
+  </si>
+  <si>
+    <t>23 7 5 29 8 7 23 7 14 18 35 8 79 16 2 15 12 11 10 1 8 7 6 11 17 5 8 5 6 2 40 11 9 4 6 6 6 0 15 8 8 7 6 4 16 8 16 10 11 5 7 19 1 0 16 8 0 16 12 9 3 39 12 12 12 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 16 14 26 6 1 18 6 12 4 26 5 13 26 13 9 9 0 28 10 10 16 6 1 29 27 14 3 9 5 5 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 4 19 18 16 7 11 14 22 11 10 16 6 5 19 29 1 11 32 7 10 15 6 5 12 5 3 7 5 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 21 37 3 2 11 2 9 24 3 13 13 30 12 8 11 5 26 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 17 11 15 11 11 10 9 19 10 37 5 13 -1 18 5 4 15 16 12 18 3 12 -1 24 6 12 14 12 18 2 31 44 11 6 13 11 13 14 11 16 21 12 -3</t>
+  </si>
+  <si>
+    <t>10 2 4 9 20 7 7 1 1 3 16 15 -1 -4 3 -4 1 3 6 1 10 1 2 2 0 5 10 5 2 6 6 12 -2 9 -2 -3 1 7 9 7 6 6 13 3 3 0 8 9 27 1 2 5 -4 1 3 2 4 2 10 4 2 6 1 6 3 7 2 6 2 12 4 2 12 4 2 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 2 4 5 26 1 3 9 1 5 0 12 1 0 -2 11 4 1 2 10 1 2 8 4 2 6 2 0 33 -2 4 16 1 1 5 10 -2 0 1 9 8 3 3 0 5 0 8 5 17 -1 0 5 0 5 3 -1 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 3 8 1 4 1 4 2 1 1 2 3 3 1 -4 1 5 8 2 35 21 5 1 7 6 2 4 1 3 5 2 3 -3 2 6 -2 10 6 1 3 11 4 3 6 7 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 4 1 3 1 1 0 4 7 4 30 0 6 -4 7 1 3 1 2 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 -3 4 5 5 8 5 1 5 0 0 1 1 9 3 3 2 4 0 2 5 17 4 -1 1 5 6 14 3 4 4 3 2 -1 2 3 2 5 4 3 2 2 3 14 0 0 8 4 4 3 6 14 -3 1 1 9 2 5 2 -2 0 2 0 0 3 1 -1</t>
+  </si>
+  <si>
+    <t>22 6 -8 12 12 1 3 6 2 6 7 10 -1 7 11 6 43 3 23 5 5 3 10 5 6 5 3 8 7 9 11 13 3 20 2 20 25 4 11 4 9 1 5 26 91 6 10 9 14 42 11 -4 2 12 2 47 14 1 0 10 3 4 15 19 6 1 9 6 7 12 25 17 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 7 8 13 10 9 23 33 3 6 2 9 14 8 5 8 13 7 9 2 30 9 11 -1 57 11 -2 2 -1 -1 5 5 -2 2 14 13 9 5 6 28 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 10 0 9 9 8 0 21 17 33 50 17 6 -2 25 45 4 4 1 5 5 9 6 0 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 2 11 29 7 4 30 15 20 7 6 14 15 24 16 5 17 7 5 23 2 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 10 7 18 20 9 12 8 6 0 5 14 8 6 24 5 6 2 11 10 38 9 10 9 14 19 10 11 7 9 1 3 8 9 5 75 6 6 25 1 5 6 2 4 3 3 17 2 13 10 5 6 11 7 15 16 13 9 13 26 9 7 11 20 9 11 29 16 7 -4 6 8 6 25 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58 63 60 66 65 61 66 57 66 69 65 64 49 59 61</t>
-  </si>
-  <si>
-    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24 37 20 21 18 26 20 13 14 22 18 32 15 26 25</t>
-  </si>
-  <si>
-    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15 28 7 15 16 13 32 45 14</t>
-  </si>
-  <si>
-    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55 30 40 52 28 36 43 42 43 47 43 43 46 48 42 46 42 52 49 45</t>
-  </si>
-  <si>
-    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0 0 0 15 0 8 0 9 31 0 0 0 0 5 0 0 0 6 5 0</t>
-  </si>
-  <si>
-    <t>0 0 0 4 0 0 10 -2 0 0 12 0 0 0 9 0 18 11 0 0 0 14 0 11 0 0 0 0 0 6 0 7 9</t>
+    <t>67 64 56 65 63 62 64 52 70 54 68 73 63 61 60 66 63 58 66 57 61 60 67 70 64 51 55 65 64 64 63 66 61 56 69 56 65 64 56 58 58 63 60 66 65 61 66 57 66 69 65 64 49 59 61 66</t>
+  </si>
+  <si>
+    <t>27 19 0 20 21 33 18 14 31 10 34 24 30 27 21 29 24 22 26 17 17 16 23 28 21 18 30 21 99 22 23 25 33 26 19 18 18 20 26 33 24 37 20 21 18 26 20 13 14 22 18 32 15 26 25 24</t>
+  </si>
+  <si>
+    <t>16 19 16 19 11 68 16 20 26 7 21 10 22 27 27 33 29 22 23 37 0 21 12 12 23 16 24 23 15 28 7 15 16 13 32 45 14 15 11</t>
+  </si>
+  <si>
+    <t>43 33 48 52 49 35 42 59 56 41 57 45 54 37 45 33 58 39 42 65 48 38 34 44 57 28 41 46 40 45 65 51 67 60 37 40 42 43 29 39 50 39 42 60 55 30 40 52 28 36 43 42 43 47 43 43 46 48 42 46 42 52 49 45 44 37 31 35 41</t>
+  </si>
+  <si>
+    <t>0 0 11 2 0 0 0 0 0 0 6 0 0 0 11 0 12 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 11 12 8 0 1 0 0 0 23 0 0 0 15 0 8 0 9 31 0 0 0 0 5 0 0 0 6 5 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 4 0 0 10 -2 0 0 12 0 0 0 9 0 18 11 0 0 0 14 0 11 0 0 0 0 0 6 0 7 9 9</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,10 +665,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -677,10 +677,10 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -689,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -721,37 +721,37 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="M3">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>681</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>167</v>
       </c>
       <c r="N2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2">
         <v>11</v>
@@ -996,37 +996,37 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J3">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="M3">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>700</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L2">
         <v>164</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
